--- a/data/trans_orig/Q24D_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 4,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,74</t>
+          <t>1,82; 2,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 3,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,3</t>
+          <t>1,69; 2,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,52; 3,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,41</t>
+          <t>1,85; 2,44</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,63</t>
+          <t>2,27; 3,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,91</t>
+          <t>2,53; 3,89</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,27</t>
+          <t>1,86; 3,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,94</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,33</t>
+          <t>2,24; 6,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,1</t>
+          <t>2,13; 3,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,25</t>
+          <t>2,47; 3,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,13</t>
+          <t>2,66; 4,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,82</t>
+          <t>2,55; 4,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,56</t>
+          <t>2,54; 3,54</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,18</t>
+          <t>2,07; 6,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,15</t>
+          <t>1,91; 5,1</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,39</t>
+          <t>2,41; 4,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,25</t>
+          <t>2,09; 3,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,86</t>
+          <t>2,4; 3,85</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,62</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,2</t>
+          <t>2,75; 6,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,5</t>
+          <t>2,81; 4,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,32</t>
+          <t>2,95; 5,18</t>
         </is>
       </c>
     </row>
@@ -1671,27 +1671,27 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
           <t>2,28</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,17</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,25</t>
+          <t>1,84; 2,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,17</t>
+          <t>1,98; 3,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,86</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,98</t>
+          <t>2,61; 3,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,13</t>
+          <t>2,53; 3,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,28</t>
+          <t>2,64; 3,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q24D_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Provincia-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de veces que han intentado dejar de fumar</t>
+          <t>Número medio de veces que han intentado dejar de fumar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,8</t>
+          <t>1,86; 2,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,04</t>
+          <t>2,57; 4,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 2,79</t>
+          <t>2,0; 2,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,78</t>
+          <t>1,81; 2,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,76</t>
+          <t>1,49; 2,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,44</t>
+          <t>2,24; 3,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,5</t>
+          <t>2,12; 3,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,29</t>
+          <t>1,69; 2,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,6</t>
+          <t>1,86; 2,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,49</t>
+          <t>2,58; 3,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 2,81</t>
+          <t>2,18; 2,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,44</t>
+          <t>1,84; 2,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,67</t>
+          <t>3,1; 5,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,58</t>
+          <t>2,51; 3,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,6</t>
+          <t>1,85; 2,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,44</t>
+          <t>2,4; 4,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,39</t>
+          <t>2,13; 3,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,77</t>
+          <t>1,89; 3,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 1,96</t>
+          <t>1,38; 1,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,64</t>
+          <t>2,21; 3,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,46</t>
+          <t>2,82; 4,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 3,24</t>
+          <t>2,36; 3,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,26</t>
+          <t>1,72; 2,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 3,89</t>
+          <t>2,51; 3,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,47 +1004,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 1,9</t>
+          <t>1,43; 1,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,6</t>
+          <t>1,93; 2,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,26</t>
+          <t>1,49; 2,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,26</t>
+          <t>1,87; 3,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,22</t>
+          <t>1,49; 2,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,3</t>
+          <t>1,74; 2,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,97</t>
+          <t>1,8; 2,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,11</t>
+          <t>1,95; 3,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 1,95</t>
+          <t>1,52; 1,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,61</t>
+          <t>1,75; 2,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 2,88</t>
+          <t>2,06; 2,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,04</t>
+          <t>1,92; 4,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,95</t>
+          <t>2,25; 6,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,37</t>
+          <t>2,87; 4,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,11</t>
+          <t>2,05; 3,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,77</t>
+          <t>1,87; 2,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,35</t>
+          <t>2,45; 3,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,18</t>
+          <t>2,62; 4,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,12</t>
+          <t>2,64; 4,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,17</t>
+          <t>1,99; 3,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,41</t>
+          <t>2,54; 4,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,24</t>
+          <t>2,88; 4,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,54</t>
+          <t>2,5; 3,44</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,29</t>
+          <t>2,86; 6,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,52</t>
+          <t>2,15; 4,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1304,49 +1304,49 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,33</t>
+          <t>1,96; 3,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,5</t>
+          <t>2,35; 4,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,53</t>
+          <t>2,5; 3,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,12</t>
+          <t>1,98; 6,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,73</t>
+          <t>2,65; 4,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,03</t>
+          <t>2,41; 3,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,18</t>
+          <t>2,59; 3,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,1</t>
+          <t>1,82; 4,86</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 1,93</t>
+          <t>1,47; 1,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,88</t>
+          <t>1,97; 2,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,85</t>
+          <t>1,66; 3,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,38</t>
+          <t>2,37; 4,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,84</t>
+          <t>1,57; 2,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 2,74</t>
+          <t>1,94; 2,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,47</t>
+          <t>1,39; 2,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,23</t>
+          <t>2,02; 3,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,16</t>
+          <t>1,61; 2,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,67</t>
+          <t>2,05; 2,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,23</t>
+          <t>1,71; 3,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,85</t>
+          <t>2,36; 3,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,17</t>
+          <t>2,04; 4,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,23</t>
+          <t>2,49; 3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,4</t>
+          <t>2,11; 3,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,75</t>
+          <t>2,89; 7,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,13</t>
+          <t>1,6; 2,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,59</t>
+          <t>2,07; 2,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,49</t>
+          <t>1,8; 2,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,48</t>
+          <t>2,81; 4,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,16</t>
+          <t>1,93; 3,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,86</t>
+          <t>2,37; 2,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 2,83</t>
+          <t>2,12; 2,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,18</t>
+          <t>3,0; 5,05</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,41</t>
+          <t>2,29; 4,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,39</t>
+          <t>1,88; 2,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,42 +1719,42 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,26</t>
+          <t>1,86; 2,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,96</t>
+          <t>1,94; 2,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,39</t>
+          <t>1,79; 2,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 2,74</t>
+          <t>2,17; 2,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,16</t>
+          <t>2,0; 3,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,62</t>
+          <t>2,25; 3,54</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,29</t>
+          <t>1,89; 2,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,48</t>
+          <t>2,1; 2,48</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,3</t>
+          <t>2,49; 3,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,03</t>
+          <t>2,5; 3,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,76</t>
+          <t>2,38; 2,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,89</t>
+          <t>2,6; 3,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,4</t>
+          <t>2,02; 2,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,65</t>
+          <t>2,28; 2,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,8</t>
+          <t>2,31; 2,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,53; 3,11</t>
+          <t>2,55; 3,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,83</t>
+          <t>2,36; 2,82</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,76</t>
+          <t>2,45; 2,78</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,71</t>
+          <t>2,39; 2,68</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,27</t>
+          <t>2,62; 3,3</t>
         </is>
       </c>
     </row>
